--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58282.36243624252</v>
+        <v>11474726.8367424</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58282.36243624252</v>
+        <v>11474726.8367424</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4995.743802920962</v>
+        <v>700332.2091621673</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4995.743802920962</v>
+        <v>700332.2091621673</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343295667.722693</v>
+        <v>55638784.26234093</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11965.99556144998</v>
+        <v>1348382.187077144</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22360.27078915672</v>
+        <v>2450337.097368163</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32755.31687388989</v>
+        <v>3552292.007659185</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43200.15844697882</v>
+        <v>4644697.408302261</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53641.46234130654</v>
+        <v>5748398.432474334</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64066.19687607221</v>
+        <v>6850353.342765354</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74490.93141083787</v>
+        <v>7952308.25305637</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84915.66594560354</v>
+        <v>9054263.163347386</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95425.17366587225</v>
+        <v>10099534.8272964</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105950.2444800259</v>
+        <v>11210708.65559035</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116377.0705432284</v>
+        <v>12312875.02966316</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126801.8050779943</v>
+        <v>13414829.93995419</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137226.5396127598</v>
+        <v>14516784.85024522</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147841.8994216755</v>
+        <v>15546616.59361578</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159143.9975737665</v>
+        <v>16501439.89888415</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>380</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>338</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
